--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Oracle\Oracle_Oct_24\Oracle_Oct_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBB828-30E6-4686-9305-A1690BEE1688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83515BEF-5577-46E5-A562-FFF60AF63F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E3D28D2-6474-4E42-8DED-A7E887940BE9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Definition</t>
   </si>
@@ -116,9 +116,6 @@
     <t>returns the multiplication of all the elements in a numeric sequence</t>
   </si>
   <si>
-    <t>str, list, tuple, set, dict, range()</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -196,6 +193,49 @@
   </si>
   <si>
     <t>()</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Mutable</t>
+  </si>
+  <si>
+    <t>reversed()</t>
+  </si>
+  <si>
+    <t>returns a sequence of elements from the given sequence in reverse order</t>
+  </si>
+  <si>
+    <t>str, list, tuple, set, dict, range(), zip(), enumerate()</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <t>heterogenous
+(immuatble object)</t>
+  </si>
+  <si>
+    <t>unordered</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>dict()</t>
+  </si>
+  <si>
+    <t>key - No
+values - Yes</t>
+  </si>
+  <si>
+    <t>{key : value}
+key - Immutable
+value - any type</t>
   </si>
 </sst>
 </file>
@@ -278,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -376,12 +416,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -393,8 +450,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -403,9 +462,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -414,11 +477,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -428,17 +512,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,16 +524,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,8 +536,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +565,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -505,56 +574,15 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+      <border>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -758,17 +786,43 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -786,6 +840,25 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,7 +874,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD77AA18-796D-456E-9EBA-2A63CDCC5A41}" name="Table2" displayName="Table2" ref="H4:N9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD77AA18-796D-456E-9EBA-2A63CDCC5A41}" name="Table2" displayName="Table2" ref="H4:N9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="1" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="H4:N9" xr:uid="{BD77AA18-796D-456E-9EBA-2A63CDCC5A41}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1124,7 +1197,7 @@
   <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1138,7 +1211,7 @@
     <col min="7" max="7" width="3.53515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.4609375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.53515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3828125" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.15234375" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.921875" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" customWidth="1"/>
@@ -1148,110 +1221,111 @@
   <sheetData>
     <row r="1" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
     </row>
-    <row r="4" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:14" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="15" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="7" spans="2:14" s="7" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" s="4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1260,136 +1334,184 @@
         <v>9</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="2:14" s="7" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:14" s="4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:14" s="4" customFormat="1" ht="51.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="H9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" s="7" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="12" t="s">
+    <row r="10" spans="2:14" s="4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="7" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:14" s="4" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="7" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="13" spans="2:14" s="4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" s="7" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="29.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:N2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
